--- a/Sprint1/Sprint1Planning.xlsx
+++ b/Sprint1/Sprint1Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Dropbox\PC\Desktop\DEVELOPPEMENT-APPLICATIOS\projetChantier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Dropbox\PC\Desktop\DEVELOPPEMENT-APPLICATIOS\projetChantier\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A45AA-CD9C-4F2A-9B94-374A414CBFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D57353-D0B0-4E75-84DA-68442FDD8E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1095" yWindow="195" windowWidth="28830" windowHeight="14655" xr2:uid="{49593094-89CE-44F8-8C8B-C49636785A2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49593094-89CE-44F8-8C8B-C49636785A2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>Sprint Goal:</t>
   </si>
@@ -162,15 +162,6 @@
     <t>code verification regles securitaires (Interface Administrateur)</t>
   </si>
   <si>
-    <t>code ajouter element a la liste (Interface Administrateur)</t>
-  </si>
-  <si>
-    <t>code supprimer element de la liste (Interface Administrateur)</t>
-  </si>
-  <si>
-    <t>code midifier element de la liste (Interface Administrateur)</t>
-  </si>
-  <si>
     <t>code de validation pour l'insertion d'un nouvel élément dans la liste (Interface Administrateur)</t>
   </si>
   <si>
@@ -239,6 +230,21 @@
   <si>
     <t>3. Créer  BD</t>
   </si>
+  <si>
+    <t>Barthelemy</t>
+  </si>
+  <si>
+    <t>code ajouter element-liste a la liste (Interface Administrateur)</t>
+  </si>
+  <si>
+    <t>code supprimer element-liste de la liste (Interface Administrateur)</t>
+  </si>
+  <si>
+    <t>code modifier element de la liste (Interface Administrateur)</t>
+  </si>
+  <si>
+    <t>Jira - Ajouter des taches</t>
+  </si>
 </sst>
 </file>
 
@@ -268,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +302,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -408,12 +420,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49990737-28A7-44F3-B503-5D019EA27ABA}">
   <dimension ref="A1:XFD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +809,7 @@
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -825,7 +854,7 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33677,19 +33706,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13">
         <v>1</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D28" s="14">
         <v>1</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -33700,36 +33729,36 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20">
+    <row r="29" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19">
         <v>2</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>1</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="19">
         <v>1</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="22">
+      <c r="G29" s="19"/>
+      <c r="H29" s="21">
         <v>44754</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13">
         <v>3</v>
@@ -33758,50 +33787,52 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20">
+    <row r="31" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19">
         <v>4</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>1</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>56</v>
+      <c r="E31" s="19" t="s">
+        <v>53</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="19">
         <v>2</v>
       </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="22">
+      <c r="G31" s="19"/>
+      <c r="H31" s="21">
         <v>44754</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
     </row>
-    <row r="32" spans="1:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13">
         <v>5</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D32" s="14">
         <v>1</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
-      <c r="F32" s="13"/>
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13" t="s">
@@ -33812,46 +33843,50 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" spans="1:242" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20">
+    <row r="33" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19">
         <v>6</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>60</v>
+      <c r="C33" s="19" t="s">
+        <v>57</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="20">
         <v>1</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>57</v>
+      <c r="E33" s="19" t="s">
+        <v>54</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20" t="s">
+      <c r="F33" s="19">
+        <v>1</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
     </row>
-    <row r="34" spans="1:242" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:242" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13">
         <v>7</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D34" s="14">
         <v>1</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13" t="s">
@@ -33862,46 +33897,50 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="1:242" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20">
+    <row r="35" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19">
         <v>8</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>54</v>
+      <c r="C35" s="19" t="s">
+        <v>51</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="20">
         <v>1</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>55</v>
+      <c r="E35" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20" t="s">
+      <c r="F35" s="19">
+        <v>1</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
     </row>
-    <row r="36" spans="1:242" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:242" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13">
         <v>9</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D36" s="14">
         <v>1</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
@@ -33912,32 +33951,34 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="1:242" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20">
+    <row r="37" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19">
         <v>10</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>63</v>
+      <c r="C37" s="19" t="s">
+        <v>60</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="20">
         <v>1</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>64</v>
+      <c r="E37" s="19" t="s">
+        <v>61</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20" t="s">
+      <c r="F37" s="19">
+        <v>1</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
     </row>
-    <row r="38" spans="1:242" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:242" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13">
         <v>11</v>
@@ -33949,9 +33990,11 @@
         <v>1</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
-      <c r="F38" s="13"/>
+      <c r="F38" s="13">
+        <v>1</v>
+      </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13" t="s">
@@ -33963,11 +34006,23 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:242" x14ac:dyDescent="0.25">
-      <c r="B39">
+      <c r="B39" s="23">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="D39" s="9">
+        <v>2</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="23">
+        <v>1</v>
+      </c>
+      <c r="H39" s="24">
+        <v>45261</v>
       </c>
       <c r="I39" t="s">
         <v>10</v>
@@ -33975,13 +34030,24 @@
     </row>
     <row r="40" spans="1:242" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
-      <c r="B40">
+      <c r="B40" s="23">
         <v>13</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="12">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="25">
+        <v>45261</v>
+      </c>
       <c r="I40" s="2" t="s">
         <v>10</v>
       </c>
@@ -34212,11 +34278,23 @@
       <c r="ID40"/>
     </row>
     <row r="41" spans="1:242" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="B41" s="23">
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="24">
+        <v>45261</v>
       </c>
       <c r="I41" t="s">
         <v>10</v>
@@ -34224,13 +34302,24 @@
     </row>
     <row r="42" spans="1:242" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
-      <c r="B42">
+      <c r="B42" s="23">
         <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
-      <c r="D42" s="12"/>
+      <c r="D42" s="12">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="25">
+        <v>45261</v>
+      </c>
       <c r="I42" s="2" t="s">
         <v>10</v>
       </c>
@@ -34459,283 +34548,333 @@
       <c r="IB42"/>
       <c r="IC42"/>
       <c r="ID42"/>
+      <c r="IE42"/>
+      <c r="IF42"/>
+      <c r="IG42"/>
+      <c r="IH42"/>
     </row>
-    <row r="43" spans="1:242" x14ac:dyDescent="0.25">
-      <c r="B43">
+    <row r="43" spans="1:242" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43" s="23">
         <v>16</v>
       </c>
-      <c r="C43" t="s">
-        <v>52</v>
+      <c r="C43" s="23" t="s">
+        <v>44</v>
       </c>
-      <c r="I43" t="s">
+      <c r="D43" s="29">
+        <v>2</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="23">
+        <v>1</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="30">
+        <v>45261</v>
+      </c>
+      <c r="I43" s="23" t="s">
         <v>10</v>
       </c>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
     </row>
-    <row r="44" spans="1:242" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:242" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
-      <c r="B44">
+      <c r="B44" s="23">
         <v>17</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44" s="12">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="25">
+        <v>45261</v>
+      </c>
       <c r="I44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
-      <c r="Z44"/>
-      <c r="AA44"/>
-      <c r="AB44"/>
-      <c r="AC44"/>
-      <c r="AD44"/>
-      <c r="AE44"/>
-      <c r="AF44"/>
-      <c r="AG44"/>
-      <c r="AH44"/>
-      <c r="AI44"/>
-      <c r="AJ44"/>
-      <c r="AK44"/>
-      <c r="AL44"/>
-      <c r="AM44"/>
-      <c r="AN44"/>
-      <c r="AO44"/>
-      <c r="AP44"/>
-      <c r="AQ44"/>
-      <c r="AR44"/>
-      <c r="AS44"/>
-      <c r="AT44"/>
-      <c r="AU44"/>
-      <c r="AV44"/>
-      <c r="AW44"/>
-      <c r="AX44"/>
-      <c r="AY44"/>
-      <c r="AZ44"/>
-      <c r="BA44"/>
-      <c r="BB44"/>
-      <c r="BC44"/>
-      <c r="BD44"/>
-      <c r="BE44"/>
-      <c r="BF44"/>
-      <c r="BG44"/>
-      <c r="BH44"/>
-      <c r="BI44"/>
-      <c r="BJ44"/>
-      <c r="BK44"/>
-      <c r="BL44"/>
-      <c r="BM44"/>
-      <c r="BN44"/>
-      <c r="BO44"/>
-      <c r="BP44"/>
-      <c r="BQ44"/>
-      <c r="BR44"/>
-      <c r="BS44"/>
-      <c r="BT44"/>
-      <c r="BU44"/>
-      <c r="BV44"/>
-      <c r="BW44"/>
-      <c r="BX44"/>
-      <c r="BY44"/>
-      <c r="BZ44"/>
-      <c r="CA44"/>
-      <c r="CB44"/>
-      <c r="CC44"/>
-      <c r="CD44"/>
-      <c r="CE44"/>
-      <c r="CF44"/>
-      <c r="CG44"/>
-      <c r="CH44"/>
-      <c r="CI44"/>
-      <c r="CJ44"/>
-      <c r="CK44"/>
-      <c r="CL44"/>
-      <c r="CM44"/>
-      <c r="CN44"/>
-      <c r="CO44"/>
-      <c r="CP44"/>
-      <c r="CQ44"/>
-      <c r="CR44"/>
-      <c r="CS44"/>
-      <c r="CT44"/>
-      <c r="CU44"/>
-      <c r="CV44"/>
-      <c r="CW44"/>
-      <c r="CX44"/>
-      <c r="CY44"/>
-      <c r="CZ44"/>
-      <c r="DA44"/>
-      <c r="DB44"/>
-      <c r="DC44"/>
-      <c r="DD44"/>
-      <c r="DE44"/>
-      <c r="DF44"/>
-      <c r="DG44"/>
-      <c r="DH44"/>
-      <c r="DI44"/>
-      <c r="DJ44"/>
-      <c r="DK44"/>
-      <c r="DL44"/>
-      <c r="DM44"/>
-      <c r="DN44"/>
-      <c r="DO44"/>
-      <c r="DP44"/>
-      <c r="DQ44"/>
-      <c r="DR44"/>
-      <c r="DS44"/>
-      <c r="DT44"/>
-      <c r="DU44"/>
-      <c r="DV44"/>
-      <c r="DW44"/>
-      <c r="DX44"/>
-      <c r="DY44"/>
-      <c r="DZ44"/>
-      <c r="EA44"/>
-      <c r="EB44"/>
-      <c r="EC44"/>
-      <c r="ED44"/>
-      <c r="EE44"/>
-      <c r="EF44"/>
-      <c r="EG44"/>
-      <c r="EH44"/>
-      <c r="EI44"/>
-      <c r="EJ44"/>
-      <c r="EK44"/>
-      <c r="EL44"/>
-      <c r="EM44"/>
-      <c r="EN44"/>
-      <c r="EO44"/>
-      <c r="EP44"/>
-      <c r="EQ44"/>
-      <c r="ER44"/>
-      <c r="ES44"/>
-      <c r="ET44"/>
-      <c r="EU44"/>
-      <c r="EV44"/>
-      <c r="EW44"/>
-      <c r="EX44"/>
-      <c r="EY44"/>
-      <c r="EZ44"/>
-      <c r="FA44"/>
-      <c r="FB44"/>
-      <c r="FC44"/>
-      <c r="FD44"/>
-      <c r="FE44"/>
-      <c r="FF44"/>
-      <c r="FG44"/>
-      <c r="FH44"/>
-      <c r="FI44"/>
-      <c r="FJ44"/>
-      <c r="FK44"/>
-      <c r="FL44"/>
-      <c r="FM44"/>
-      <c r="FN44"/>
-      <c r="FO44"/>
-      <c r="FP44"/>
-      <c r="FQ44"/>
-      <c r="FR44"/>
-      <c r="FS44"/>
-      <c r="FT44"/>
-      <c r="FU44"/>
-      <c r="FV44"/>
-      <c r="FW44"/>
-      <c r="FX44"/>
-      <c r="FY44"/>
-      <c r="FZ44"/>
-      <c r="GA44"/>
-      <c r="GB44"/>
-      <c r="GC44"/>
-      <c r="GD44"/>
-      <c r="GE44"/>
-      <c r="GF44"/>
-      <c r="GG44"/>
-      <c r="GH44"/>
-      <c r="GI44"/>
-      <c r="GJ44"/>
-      <c r="GK44"/>
-      <c r="GL44"/>
-      <c r="GM44"/>
-      <c r="GN44"/>
-      <c r="GO44"/>
-      <c r="GP44"/>
-      <c r="GQ44"/>
-      <c r="GR44"/>
-      <c r="GS44"/>
-      <c r="GT44"/>
-      <c r="GU44"/>
-      <c r="GV44"/>
-      <c r="GW44"/>
-      <c r="GX44"/>
-      <c r="GY44"/>
-      <c r="GZ44"/>
-      <c r="HA44"/>
-      <c r="HB44"/>
-      <c r="HC44"/>
-      <c r="HD44"/>
-      <c r="HE44"/>
-      <c r="HF44"/>
-      <c r="HG44"/>
-      <c r="HH44"/>
-      <c r="HI44"/>
-      <c r="HJ44"/>
-      <c r="HK44"/>
-      <c r="HL44"/>
-      <c r="HM44"/>
-      <c r="HN44"/>
-      <c r="HO44"/>
-      <c r="HP44"/>
-      <c r="HQ44"/>
-      <c r="HR44"/>
-      <c r="HS44"/>
-      <c r="HT44"/>
-      <c r="HU44"/>
-      <c r="HV44"/>
-      <c r="HW44"/>
-      <c r="HX44"/>
-      <c r="HY44"/>
-      <c r="HZ44"/>
-      <c r="IA44"/>
-      <c r="IB44"/>
-      <c r="IC44"/>
-      <c r="ID44"/>
-      <c r="IE44"/>
-      <c r="IF44"/>
-      <c r="IG44"/>
-      <c r="IH44"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+      <c r="BT44" s="1"/>
+      <c r="BU44" s="1"/>
+      <c r="BV44" s="1"/>
+      <c r="BW44" s="1"/>
+      <c r="BX44" s="1"/>
+      <c r="BY44" s="1"/>
+      <c r="BZ44" s="1"/>
+      <c r="CA44" s="1"/>
+      <c r="CB44" s="1"/>
+      <c r="CC44" s="1"/>
+      <c r="CD44" s="1"/>
+      <c r="CE44" s="1"/>
+      <c r="CF44" s="1"/>
+      <c r="CG44" s="1"/>
+      <c r="CH44" s="1"/>
+      <c r="CI44" s="1"/>
+      <c r="CJ44" s="1"/>
+      <c r="CK44" s="1"/>
+      <c r="CL44" s="1"/>
+      <c r="CM44" s="1"/>
+      <c r="CN44" s="1"/>
+      <c r="CO44" s="1"/>
+      <c r="CP44" s="1"/>
+      <c r="CQ44" s="1"/>
+      <c r="CR44" s="1"/>
+      <c r="CS44" s="1"/>
+      <c r="CT44" s="1"/>
+      <c r="CU44" s="1"/>
+      <c r="CV44" s="1"/>
+      <c r="CW44" s="1"/>
+      <c r="CX44" s="1"/>
+      <c r="CY44" s="1"/>
+      <c r="CZ44" s="1"/>
+      <c r="DA44" s="1"/>
+      <c r="DB44" s="1"/>
+      <c r="DC44" s="1"/>
+      <c r="DD44" s="1"/>
+      <c r="DE44" s="1"/>
+      <c r="DF44" s="1"/>
+      <c r="DG44" s="1"/>
+      <c r="DH44" s="1"/>
+      <c r="DI44" s="1"/>
+      <c r="DJ44" s="1"/>
+      <c r="DK44" s="1"/>
+      <c r="DL44" s="1"/>
+      <c r="DM44" s="1"/>
+      <c r="DN44" s="1"/>
+      <c r="DO44" s="1"/>
+      <c r="DP44" s="1"/>
+      <c r="DQ44" s="1"/>
+      <c r="DR44" s="1"/>
+      <c r="DS44" s="1"/>
+      <c r="DT44" s="1"/>
+      <c r="DU44" s="1"/>
+      <c r="DV44" s="1"/>
+      <c r="DW44" s="1"/>
+      <c r="DX44" s="1"/>
+      <c r="DY44" s="1"/>
+      <c r="DZ44" s="1"/>
+      <c r="EA44" s="1"/>
+      <c r="EB44" s="1"/>
+      <c r="EC44" s="1"/>
+      <c r="ED44" s="1"/>
+      <c r="EE44" s="1"/>
+      <c r="EF44" s="1"/>
+      <c r="EG44" s="1"/>
+      <c r="EH44" s="1"/>
+      <c r="EI44" s="1"/>
+      <c r="EJ44" s="1"/>
+      <c r="EK44" s="1"/>
+      <c r="EL44" s="1"/>
+      <c r="EM44" s="1"/>
+      <c r="EN44" s="1"/>
+      <c r="EO44" s="1"/>
+      <c r="EP44" s="1"/>
+      <c r="EQ44" s="1"/>
+      <c r="ER44" s="1"/>
+      <c r="ES44" s="1"/>
+      <c r="ET44" s="1"/>
+      <c r="EU44" s="1"/>
+      <c r="EV44" s="1"/>
+      <c r="EW44" s="1"/>
+      <c r="EX44" s="1"/>
+      <c r="EY44" s="1"/>
+      <c r="EZ44" s="1"/>
+      <c r="FA44" s="1"/>
+      <c r="FB44" s="1"/>
+      <c r="FC44" s="1"/>
+      <c r="FD44" s="1"/>
+      <c r="FE44" s="1"/>
+      <c r="FF44" s="1"/>
+      <c r="FG44" s="1"/>
+      <c r="FH44" s="1"/>
+      <c r="FI44" s="1"/>
+      <c r="FJ44" s="1"/>
+      <c r="FK44" s="1"/>
+      <c r="FL44" s="1"/>
+      <c r="FM44" s="1"/>
+      <c r="FN44" s="1"/>
+      <c r="FO44" s="1"/>
+      <c r="FP44" s="1"/>
+      <c r="FQ44" s="1"/>
+      <c r="FR44" s="1"/>
+      <c r="FS44" s="1"/>
+      <c r="FT44" s="1"/>
+      <c r="FU44" s="1"/>
+      <c r="FV44" s="1"/>
+      <c r="FW44" s="1"/>
+      <c r="FX44" s="1"/>
+      <c r="FY44" s="1"/>
+      <c r="FZ44" s="1"/>
+      <c r="GA44" s="1"/>
+      <c r="GB44" s="1"/>
+      <c r="GC44" s="1"/>
+      <c r="GD44" s="1"/>
+      <c r="GE44" s="1"/>
+      <c r="GF44" s="1"/>
+      <c r="GG44" s="1"/>
+      <c r="GH44" s="1"/>
+      <c r="GI44" s="1"/>
+      <c r="GJ44" s="1"/>
+      <c r="GK44" s="1"/>
+      <c r="GL44" s="1"/>
+      <c r="GM44" s="1"/>
+      <c r="GN44" s="1"/>
+      <c r="GO44" s="1"/>
+      <c r="GP44" s="1"/>
+      <c r="GQ44" s="1"/>
+      <c r="GR44" s="1"/>
+      <c r="GS44" s="1"/>
+      <c r="GT44" s="1"/>
+      <c r="GU44" s="1"/>
+      <c r="GV44" s="1"/>
+      <c r="GW44" s="1"/>
+      <c r="GX44" s="1"/>
+      <c r="GY44" s="1"/>
+      <c r="GZ44" s="1"/>
+      <c r="HA44" s="1"/>
+      <c r="HB44" s="1"/>
+      <c r="HC44" s="1"/>
+      <c r="HD44" s="1"/>
+      <c r="HE44" s="1"/>
+      <c r="HF44" s="1"/>
+      <c r="HG44" s="1"/>
+      <c r="HH44" s="1"/>
+      <c r="HI44" s="1"/>
+      <c r="HJ44" s="1"/>
+      <c r="HK44" s="1"/>
+      <c r="HL44" s="1"/>
+      <c r="HM44" s="1"/>
+      <c r="HN44" s="1"/>
+      <c r="HO44" s="1"/>
+      <c r="HP44" s="1"/>
+      <c r="HQ44" s="1"/>
+      <c r="HR44" s="1"/>
+      <c r="HS44" s="1"/>
+      <c r="HT44" s="1"/>
+      <c r="HU44" s="1"/>
+      <c r="HV44" s="1"/>
+      <c r="HW44" s="1"/>
+      <c r="HX44" s="1"/>
+      <c r="HY44" s="1"/>
+      <c r="HZ44" s="1"/>
+      <c r="IA44" s="1"/>
+      <c r="IB44" s="1"/>
+      <c r="IC44" s="1"/>
+      <c r="ID44" s="1"/>
+      <c r="IE44" s="1"/>
+      <c r="IF44" s="1"/>
+      <c r="IG44" s="1"/>
+      <c r="IH44" s="1"/>
     </row>
-    <row r="45" spans="1:242" x14ac:dyDescent="0.25">
-      <c r="B45">
+    <row r="45" spans="1:242" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45" s="23">
         <v>18</v>
       </c>
-      <c r="C45" t="s">
-        <v>41</v>
+      <c r="C45" s="31" t="s">
+        <v>68</v>
       </c>
-      <c r="I45" t="s">
+      <c r="D45" s="32">
+        <v>2</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="31">
+        <v>1</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="33">
+        <v>45261</v>
+      </c>
+      <c r="I45" s="31" t="s">
         <v>10</v>
       </c>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
     </row>
     <row r="46" spans="1:242" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
-      <c r="B46">
+      <c r="B46" s="23">
         <v>19</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D46" s="12"/>
-      <c r="I46" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
@@ -34967,28 +35106,42 @@
       <c r="IH46"/>
     </row>
     <row r="47" spans="1:242" x14ac:dyDescent="0.25">
-      <c r="B47">
+      <c r="A47" s="1"/>
+      <c r="B47" s="23">
         <v>20</v>
       </c>
-      <c r="C47" t="s">
-        <v>43</v>
+      <c r="C47" s="26" t="s">
+        <v>65</v>
       </c>
-      <c r="I47" t="s">
-        <v>10</v>
-      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
     </row>
     <row r="48" spans="1:242" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-      <c r="B48">
+      <c r="A48" s="1"/>
+      <c r="B48" s="23">
         <v>21</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>44</v>
+      <c r="C48" s="26" t="s">
+        <v>66</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="I48" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
@@ -35220,28 +35373,42 @@
       <c r="IH48"/>
     </row>
     <row r="49" spans="1:242" x14ac:dyDescent="0.25">
-      <c r="B49">
+      <c r="A49" s="1"/>
+      <c r="B49" s="23">
         <v>22</v>
       </c>
-      <c r="C49" t="s">
-        <v>45</v>
+      <c r="C49" s="26" t="s">
+        <v>67</v>
       </c>
-      <c r="I49" t="s">
-        <v>10</v>
-      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
     </row>
     <row r="50" spans="1:242" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
-      <c r="B50">
+      <c r="B50" s="23">
         <v>23</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>47</v>
+      <c r="C50" s="26" t="s">
+        <v>41</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="I50" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
@@ -35473,259 +35640,284 @@
       <c r="IH50"/>
     </row>
     <row r="51" spans="1:242" x14ac:dyDescent="0.25">
-      <c r="B51">
+      <c r="B51" s="23">
         <v>24</v>
       </c>
-      <c r="C51" t="s">
-        <v>46</v>
+      <c r="C51" s="26" t="s">
+        <v>42</v>
       </c>
-      <c r="I51" t="s">
-        <v>10</v>
-      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
     </row>
-    <row r="52" spans="1:242" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52">
+    <row r="52" spans="1:242" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="23">
         <v>25</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="I52" s="2" t="s">
-        <v>10</v>
+      <c r="C52" s="26" t="s">
+        <v>48</v>
       </c>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
-      <c r="AA52"/>
-      <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
-      <c r="AE52"/>
-      <c r="AF52"/>
-      <c r="AG52"/>
-      <c r="AH52"/>
-      <c r="AI52"/>
-      <c r="AJ52"/>
-      <c r="AK52"/>
-      <c r="AL52"/>
-      <c r="AM52"/>
-      <c r="AN52"/>
-      <c r="AO52"/>
-      <c r="AP52"/>
-      <c r="AQ52"/>
-      <c r="AR52"/>
-      <c r="AS52"/>
-      <c r="AT52"/>
-      <c r="AU52"/>
-      <c r="AV52"/>
-      <c r="AW52"/>
-      <c r="AX52"/>
-      <c r="AY52"/>
-      <c r="AZ52"/>
-      <c r="BA52"/>
-      <c r="BB52"/>
-      <c r="BC52"/>
-      <c r="BD52"/>
-      <c r="BE52"/>
-      <c r="BF52"/>
-      <c r="BG52"/>
-      <c r="BH52"/>
-      <c r="BI52"/>
-      <c r="BJ52"/>
-      <c r="BK52"/>
-      <c r="BL52"/>
-      <c r="BM52"/>
-      <c r="BN52"/>
-      <c r="BO52"/>
-      <c r="BP52"/>
-      <c r="BQ52"/>
-      <c r="BR52"/>
-      <c r="BS52"/>
-      <c r="BT52"/>
-      <c r="BU52"/>
-      <c r="BV52"/>
-      <c r="BW52"/>
-      <c r="BX52"/>
-      <c r="BY52"/>
-      <c r="BZ52"/>
-      <c r="CA52"/>
-      <c r="CB52"/>
-      <c r="CC52"/>
-      <c r="CD52"/>
-      <c r="CE52"/>
-      <c r="CF52"/>
-      <c r="CG52"/>
-      <c r="CH52"/>
-      <c r="CI52"/>
-      <c r="CJ52"/>
-      <c r="CK52"/>
-      <c r="CL52"/>
-      <c r="CM52"/>
-      <c r="CN52"/>
-      <c r="CO52"/>
-      <c r="CP52"/>
-      <c r="CQ52"/>
-      <c r="CR52"/>
-      <c r="CS52"/>
-      <c r="CT52"/>
-      <c r="CU52"/>
-      <c r="CV52"/>
-      <c r="CW52"/>
-      <c r="CX52"/>
-      <c r="CY52"/>
-      <c r="CZ52"/>
-      <c r="DA52"/>
-      <c r="DB52"/>
-      <c r="DC52"/>
-      <c r="DD52"/>
-      <c r="DE52"/>
-      <c r="DF52"/>
-      <c r="DG52"/>
-      <c r="DH52"/>
-      <c r="DI52"/>
-      <c r="DJ52"/>
-      <c r="DK52"/>
-      <c r="DL52"/>
-      <c r="DM52"/>
-      <c r="DN52"/>
-      <c r="DO52"/>
-      <c r="DP52"/>
-      <c r="DQ52"/>
-      <c r="DR52"/>
-      <c r="DS52"/>
-      <c r="DT52"/>
-      <c r="DU52"/>
-      <c r="DV52"/>
-      <c r="DW52"/>
-      <c r="DX52"/>
-      <c r="DY52"/>
-      <c r="DZ52"/>
-      <c r="EA52"/>
-      <c r="EB52"/>
-      <c r="EC52"/>
-      <c r="ED52"/>
-      <c r="EE52"/>
-      <c r="EF52"/>
-      <c r="EG52"/>
-      <c r="EH52"/>
-      <c r="EI52"/>
-      <c r="EJ52"/>
-      <c r="EK52"/>
-      <c r="EL52"/>
-      <c r="EM52"/>
-      <c r="EN52"/>
-      <c r="EO52"/>
-      <c r="EP52"/>
-      <c r="EQ52"/>
-      <c r="ER52"/>
-      <c r="ES52"/>
-      <c r="ET52"/>
-      <c r="EU52"/>
-      <c r="EV52"/>
-      <c r="EW52"/>
-      <c r="EX52"/>
-      <c r="EY52"/>
-      <c r="EZ52"/>
-      <c r="FA52"/>
-      <c r="FB52"/>
-      <c r="FC52"/>
-      <c r="FD52"/>
-      <c r="FE52"/>
-      <c r="FF52"/>
-      <c r="FG52"/>
-      <c r="FH52"/>
-      <c r="FI52"/>
-      <c r="FJ52"/>
-      <c r="FK52"/>
-      <c r="FL52"/>
-      <c r="FM52"/>
-      <c r="FN52"/>
-      <c r="FO52"/>
-      <c r="FP52"/>
-      <c r="FQ52"/>
-      <c r="FR52"/>
-      <c r="FS52"/>
-      <c r="FT52"/>
-      <c r="FU52"/>
-      <c r="FV52"/>
-      <c r="FW52"/>
-      <c r="FX52"/>
-      <c r="FY52"/>
-      <c r="FZ52"/>
-      <c r="GA52"/>
-      <c r="GB52"/>
-      <c r="GC52"/>
-      <c r="GD52"/>
-      <c r="GE52"/>
-      <c r="GF52"/>
-      <c r="GG52"/>
-      <c r="GH52"/>
-      <c r="GI52"/>
-      <c r="GJ52"/>
-      <c r="GK52"/>
-      <c r="GL52"/>
-      <c r="GM52"/>
-      <c r="GN52"/>
-      <c r="GO52"/>
-      <c r="GP52"/>
-      <c r="GQ52"/>
-      <c r="GR52"/>
-      <c r="GS52"/>
-      <c r="GT52"/>
-      <c r="GU52"/>
-      <c r="GV52"/>
-      <c r="GW52"/>
-      <c r="GX52"/>
-      <c r="GY52"/>
-      <c r="GZ52"/>
-      <c r="HA52"/>
-      <c r="HB52"/>
-      <c r="HC52"/>
-      <c r="HD52"/>
-      <c r="HE52"/>
-      <c r="HF52"/>
-      <c r="HG52"/>
-      <c r="HH52"/>
-      <c r="HI52"/>
-      <c r="HJ52"/>
-      <c r="HK52"/>
-      <c r="HL52"/>
-      <c r="HM52"/>
-      <c r="HN52"/>
-      <c r="HO52"/>
-      <c r="HP52"/>
-      <c r="HQ52"/>
-      <c r="HR52"/>
-      <c r="HS52"/>
-      <c r="HT52"/>
-      <c r="HU52"/>
-      <c r="HV52"/>
-      <c r="HW52"/>
-      <c r="HX52"/>
-      <c r="HY52"/>
-      <c r="HZ52"/>
-      <c r="IA52"/>
-      <c r="IB52"/>
-      <c r="IC52"/>
-      <c r="ID52"/>
-      <c r="IE52"/>
-      <c r="IF52"/>
-      <c r="IG52"/>
-      <c r="IH52"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="1"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="1"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="1"/>
+      <c r="BM52" s="1"/>
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="1"/>
+      <c r="BR52" s="1"/>
+      <c r="BS52" s="1"/>
+      <c r="BT52" s="1"/>
+      <c r="BU52" s="1"/>
+      <c r="BV52" s="1"/>
+      <c r="BW52" s="1"/>
+      <c r="BX52" s="1"/>
+      <c r="BY52" s="1"/>
+      <c r="BZ52" s="1"/>
+      <c r="CA52" s="1"/>
+      <c r="CB52" s="1"/>
+      <c r="CC52" s="1"/>
+      <c r="CD52" s="1"/>
+      <c r="CE52" s="1"/>
+      <c r="CF52" s="1"/>
+      <c r="CG52" s="1"/>
+      <c r="CH52" s="1"/>
+      <c r="CI52" s="1"/>
+      <c r="CJ52" s="1"/>
+      <c r="CK52" s="1"/>
+      <c r="CL52" s="1"/>
+      <c r="CM52" s="1"/>
+      <c r="CN52" s="1"/>
+      <c r="CO52" s="1"/>
+      <c r="CP52" s="1"/>
+      <c r="CQ52" s="1"/>
+      <c r="CR52" s="1"/>
+      <c r="CS52" s="1"/>
+      <c r="CT52" s="1"/>
+      <c r="CU52" s="1"/>
+      <c r="CV52" s="1"/>
+      <c r="CW52" s="1"/>
+      <c r="CX52" s="1"/>
+      <c r="CY52" s="1"/>
+      <c r="CZ52" s="1"/>
+      <c r="DA52" s="1"/>
+      <c r="DB52" s="1"/>
+      <c r="DC52" s="1"/>
+      <c r="DD52" s="1"/>
+      <c r="DE52" s="1"/>
+      <c r="DF52" s="1"/>
+      <c r="DG52" s="1"/>
+      <c r="DH52" s="1"/>
+      <c r="DI52" s="1"/>
+      <c r="DJ52" s="1"/>
+      <c r="DK52" s="1"/>
+      <c r="DL52" s="1"/>
+      <c r="DM52" s="1"/>
+      <c r="DN52" s="1"/>
+      <c r="DO52" s="1"/>
+      <c r="DP52" s="1"/>
+      <c r="DQ52" s="1"/>
+      <c r="DR52" s="1"/>
+      <c r="DS52" s="1"/>
+      <c r="DT52" s="1"/>
+      <c r="DU52" s="1"/>
+      <c r="DV52" s="1"/>
+      <c r="DW52" s="1"/>
+      <c r="DX52" s="1"/>
+      <c r="DY52" s="1"/>
+      <c r="DZ52" s="1"/>
+      <c r="EA52" s="1"/>
+      <c r="EB52" s="1"/>
+      <c r="EC52" s="1"/>
+      <c r="ED52" s="1"/>
+      <c r="EE52" s="1"/>
+      <c r="EF52" s="1"/>
+      <c r="EG52" s="1"/>
+      <c r="EH52" s="1"/>
+      <c r="EI52" s="1"/>
+      <c r="EJ52" s="1"/>
+      <c r="EK52" s="1"/>
+      <c r="EL52" s="1"/>
+      <c r="EM52" s="1"/>
+      <c r="EN52" s="1"/>
+      <c r="EO52" s="1"/>
+      <c r="EP52" s="1"/>
+      <c r="EQ52" s="1"/>
+      <c r="ER52" s="1"/>
+      <c r="ES52" s="1"/>
+      <c r="ET52" s="1"/>
+      <c r="EU52" s="1"/>
+      <c r="EV52" s="1"/>
+      <c r="EW52" s="1"/>
+      <c r="EX52" s="1"/>
+      <c r="EY52" s="1"/>
+      <c r="EZ52" s="1"/>
+      <c r="FA52" s="1"/>
+      <c r="FB52" s="1"/>
+      <c r="FC52" s="1"/>
+      <c r="FD52" s="1"/>
+      <c r="FE52" s="1"/>
+      <c r="FF52" s="1"/>
+      <c r="FG52" s="1"/>
+      <c r="FH52" s="1"/>
+      <c r="FI52" s="1"/>
+      <c r="FJ52" s="1"/>
+      <c r="FK52" s="1"/>
+      <c r="FL52" s="1"/>
+      <c r="FM52" s="1"/>
+      <c r="FN52" s="1"/>
+      <c r="FO52" s="1"/>
+      <c r="FP52" s="1"/>
+      <c r="FQ52" s="1"/>
+      <c r="FR52" s="1"/>
+      <c r="FS52" s="1"/>
+      <c r="FT52" s="1"/>
+      <c r="FU52" s="1"/>
+      <c r="FV52" s="1"/>
+      <c r="FW52" s="1"/>
+      <c r="FX52" s="1"/>
+      <c r="FY52" s="1"/>
+      <c r="FZ52" s="1"/>
+      <c r="GA52" s="1"/>
+      <c r="GB52" s="1"/>
+      <c r="GC52" s="1"/>
+      <c r="GD52" s="1"/>
+      <c r="GE52" s="1"/>
+      <c r="GF52" s="1"/>
+      <c r="GG52" s="1"/>
+      <c r="GH52" s="1"/>
+      <c r="GI52" s="1"/>
+      <c r="GJ52" s="1"/>
+      <c r="GK52" s="1"/>
+      <c r="GL52" s="1"/>
+      <c r="GM52" s="1"/>
+      <c r="GN52" s="1"/>
+      <c r="GO52" s="1"/>
+      <c r="GP52" s="1"/>
+      <c r="GQ52" s="1"/>
+      <c r="GR52" s="1"/>
+      <c r="GS52" s="1"/>
+      <c r="GT52" s="1"/>
+      <c r="GU52" s="1"/>
+      <c r="GV52" s="1"/>
+      <c r="GW52" s="1"/>
+      <c r="GX52" s="1"/>
+      <c r="GY52" s="1"/>
+      <c r="GZ52" s="1"/>
+      <c r="HA52" s="1"/>
+      <c r="HB52" s="1"/>
+      <c r="HC52" s="1"/>
+      <c r="HD52" s="1"/>
+      <c r="HE52" s="1"/>
+      <c r="HF52" s="1"/>
+      <c r="HG52" s="1"/>
+      <c r="HH52" s="1"/>
+      <c r="HI52" s="1"/>
+      <c r="HJ52" s="1"/>
+      <c r="HK52" s="1"/>
+      <c r="HL52" s="1"/>
+      <c r="HM52" s="1"/>
+      <c r="HN52" s="1"/>
+      <c r="HO52" s="1"/>
+      <c r="HP52" s="1"/>
+      <c r="HQ52" s="1"/>
+      <c r="HR52" s="1"/>
+      <c r="HS52" s="1"/>
+      <c r="HT52" s="1"/>
+      <c r="HU52" s="1"/>
+      <c r="HV52" s="1"/>
+      <c r="HW52" s="1"/>
+      <c r="HX52" s="1"/>
+      <c r="HY52" s="1"/>
+      <c r="HZ52" s="1"/>
+      <c r="IA52" s="1"/>
+      <c r="IB52" s="1"/>
+      <c r="IC52" s="1"/>
+      <c r="ID52" s="1"/>
     </row>
-    <row r="53" spans="1:242" x14ac:dyDescent="0.25">
-      <c r="B53">
+    <row r="53" spans="1:242" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="23">
         <v>26</v>
       </c>
+      <c r="C53" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
     </row>
     <row r="56" spans="1:242" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
